--- a/HowToExcel/bin/Debug/netcoreapp3.1/Data.xlsx
+++ b/HowToExcel/bin/Debug/netcoreapp3.1/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -26,34 +26,73 @@
     <t>Budget</t>
   </si>
   <si>
+    <t>Contracter</t>
+  </si>
+  <si>
+    <t>Rate Per Hour</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
     <t>Stroke</t>
   </si>
   <si>
+    <t>Simon</t>
+  </si>
+  <si>
     <t>Feed</t>
   </si>
   <si>
+    <t>Anna</t>
+  </si>
+  <si>
     <t>Take a walk</t>
   </si>
   <si>
+    <t>Jake</t>
+  </si>
+  <si>
     <t>Combing</t>
   </si>
   <si>
+    <t>Fin</t>
+  </si>
+  <si>
     <t>To wash</t>
   </si>
   <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
     <t>Cut the cat</t>
   </si>
   <si>
+    <t>George</t>
+  </si>
+  <si>
     <t>Make friends with other pets</t>
   </si>
   <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t>Teach the team giva a paw</t>
   </si>
   <si>
+    <t>Olga</t>
+  </si>
+  <si>
     <t>Teach the team sit</t>
   </si>
   <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Teach the team wait</t>
+  </si>
+  <si>
+    <t>Stacy</t>
   </si>
 </sst>
 </file>
@@ -99,16 +138,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -124,145 +165,244 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0">
         <v>2</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0">
+        <v>50</v>
+      </c>
+      <c r="I2" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0">
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>4</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0">
+        <v>60</v>
+      </c>
+      <c r="I4" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0">
+        <v>50</v>
+      </c>
+      <c r="I5" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>5</v>
       </c>
       <c r="D6" s="0">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0">
+        <v>30</v>
+      </c>
+      <c r="I6" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="0">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0">
         <v>9</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2</v>
-      </c>
-      <c r="C7" s="0">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
         <v>2</v>
       </c>
       <c r="D8" s="0">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="0">
+        <v>40</v>
+      </c>
+      <c r="I8" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0">
         <v>4</v>
       </c>
       <c r="D9" s="0">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0">
+        <v>40</v>
+      </c>
+      <c r="I9" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0">
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="0">
+        <v>30</v>
+      </c>
+      <c r="I10" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0">
         <v>4</v>
       </c>
       <c r="D11" s="0">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/HowToExcel/bin/Debug/netcoreapp3.1/Data.xlsx
+++ b/HowToExcel/bin/Debug/netcoreapp3.1/Data.xlsx
@@ -148,8 +148,8 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/HowToExcel/bin/Debug/netcoreapp3.1/Data.xlsx
+++ b/HowToExcel/bin/Debug/netcoreapp3.1/Data.xlsx
@@ -186,7 +186,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="0">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>8</v>
@@ -209,7 +209,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>10</v>
@@ -232,7 +232,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
@@ -252,10 +252,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>
@@ -278,7 +278,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0">
-        <v>40</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>16</v>
@@ -301,7 +301,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="0">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>18</v>
@@ -324,7 +324,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="0">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>20</v>
@@ -347,7 +347,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="0">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>22</v>
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>24</v>
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="0">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>26</v>
